--- a/testfiles/maxquant/metadata.xlsx
+++ b/testfiles/maxquant/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drq441/Documents/GitHub/alphastats/testfiles/maxquant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0ABF1-B31C-4B49-A93F-E5AF2984E6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D8E72-EDC6-9F48-AAA2-0BA9173B6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="25120" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="25120" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/testfiles/maxquant/metadata.xlsx
+++ b/testfiles/maxquant/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drq441/Documents/GitHub/alphastats/testfiles/maxquant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D8E72-EDC6-9F48-AAA2-0BA9173B6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A95513-9C9B-644A-9A65-CF0A9EFC678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="25120" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,24 +165,15 @@
     <t>Fasting blood glucose level (271062006)</t>
   </si>
   <si>
-    <t>Aspartate aminotransferase measurement (45896001)</t>
-  </si>
-  <si>
     <t>Hemoglobin A1c measurement (43396009)</t>
   </si>
   <si>
     <t>VLDL cholesterol measurement (104585005)</t>
   </si>
   <si>
-    <t>Diastole (90892000)</t>
-  </si>
-  <si>
     <t>Bilirubin level (302787001)</t>
   </si>
   <si>
-    <t>Systole (111973004)</t>
-  </si>
-  <si>
     <t>Triglycerides measurement (14740000)</t>
   </si>
   <si>
@@ -198,18 +189,12 @@
     <t>Drug therapy (procedure) (416608005)</t>
   </si>
   <si>
-    <t>Body mass index (60621009)</t>
-  </si>
-  <si>
     <t>Waist circumference (276361009)</t>
   </si>
   <si>
     <t>platelets/liter (277200003)</t>
   </si>
   <si>
-    <t>Alkaline phosphatase measurement (88810008)</t>
-  </si>
-  <si>
     <t>Total cholesterol:HDL ratio measurement (166842003)</t>
   </si>
   <si>
@@ -391,6 +376,21 @@
   </si>
   <si>
     <t>batch3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body mass index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diastole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline phosphatase measurement </t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase measurement</t>
   </si>
 </sst>
 </file>
@@ -949,9 +949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1007,13 +1007,13 @@
   <sheetData>
     <row r="1" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
@@ -1031,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
@@ -1085,67 +1085,67 @@
         <v>2</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AG1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>23</v>
@@ -1166,10 +1166,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1260,7 +1260,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -1270,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1364,7 +1364,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -1374,10 +1374,10 @@
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1468,7 +1468,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>23</v>
@@ -1478,10 +1478,10 @@
         <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1572,7 +1572,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>23</v>
@@ -1582,10 +1582,10 @@
         <v>24</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1676,7 +1676,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>23</v>
@@ -1686,10 +1686,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1780,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>23</v>
@@ -1790,10 +1790,10 @@
         <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1884,7 +1884,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>23</v>
@@ -1894,10 +1894,10 @@
         <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1988,7 +1988,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -1998,10 +1998,10 @@
         <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2092,7 +2092,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>23</v>
@@ -2102,10 +2102,10 @@
         <v>24</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2196,7 +2196,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>23</v>
@@ -2208,10 +2208,10 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2305,7 +2305,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>23</v>
@@ -2317,10 +2317,10 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2414,7 +2414,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>23</v>
@@ -2426,10 +2426,10 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2523,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>23</v>
@@ -2535,10 +2535,10 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2632,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>23</v>
@@ -2644,10 +2644,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2741,7 +2741,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
@@ -2753,10 +2753,10 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2850,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>23</v>
@@ -2862,10 +2862,10 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2959,7 +2959,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>23</v>
@@ -2971,10 +2971,10 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3068,7 +3068,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>23</v>
@@ -3080,10 +3080,10 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3177,7 +3177,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>23</v>
@@ -3189,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3286,7 +3286,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>23</v>
@@ -3301,7 +3301,7 @@
         <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3395,7 +3395,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
@@ -3410,7 +3410,7 @@
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3505,7 +3505,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
@@ -3520,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3615,7 +3615,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>23</v>
@@ -3630,7 +3630,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3725,7 +3725,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>23</v>
@@ -3740,7 +3740,7 @@
         <v>27</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3829,7 +3829,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>23</v>
@@ -3844,7 +3844,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3937,7 +3937,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>23</v>
@@ -3952,7 +3952,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -4041,7 +4041,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>23</v>
@@ -4056,7 +4056,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -4145,7 +4145,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>23</v>
@@ -4157,10 +4157,10 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -4254,7 +4254,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>23</v>
@@ -4266,10 +4266,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -4363,7 +4363,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>23</v>
@@ -4375,10 +4375,10 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -4472,7 +4472,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>23</v>
@@ -4484,10 +4484,10 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -4578,7 +4578,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>23</v>
@@ -4590,10 +4590,10 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -4687,7 +4687,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>23</v>
@@ -4699,10 +4699,10 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -4793,7 +4793,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>23</v>
@@ -4805,10 +4805,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -4902,7 +4902,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>23</v>
@@ -4914,10 +4914,10 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -5014,7 +5014,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>23</v>
@@ -5026,10 +5026,10 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -5126,7 +5126,7 @@
         <v>68</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>23</v>
@@ -5138,10 +5138,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5219,7 +5219,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>23</v>
@@ -5234,7 +5234,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5328,7 +5328,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>23</v>
@@ -5343,7 +5343,7 @@
         <v>38</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5437,7 +5437,7 @@
         <v>71</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>23</v>
@@ -5452,7 +5452,7 @@
         <v>38</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5546,7 +5546,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>23</v>
@@ -5561,7 +5561,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5652,7 +5652,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>23</v>
@@ -5667,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5755,7 +5755,7 @@
         <v>74</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>23</v>
@@ -5770,7 +5770,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5861,7 +5861,7 @@
         <v>75</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>23</v>
@@ -5876,7 +5876,7 @@
         <v>38</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -5967,7 +5967,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>23</v>
@@ -5982,7 +5982,7 @@
         <v>38</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6073,7 +6073,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>23</v>
@@ -6088,7 +6088,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6179,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>23</v>
@@ -6194,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>

--- a/testfiles/maxquant/metadata.xlsx
+++ b/testfiles/maxquant/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drq441/Documents/GitHub/alphastats/testfiles/maxquant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A95513-9C9B-644A-9A65-CF0A9EFC678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A009D-ED71-084A-BA63-5633AE8E5D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="25120" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
     <t xml:space="preserve">Diastole </t>
   </si>
   <si>
-    <t xml:space="preserve">Alkaline phosphatase measurement </t>
-  </si>
-  <si>
     <t>Aspartate aminotransferase measurement</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase measurement</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1121,10 +1121,10 @@
         <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>44</v>
